--- a/CP02PMUO/Omaha_Cal_Info_CP02PMUO_00003.xlsx
+++ b/CP02PMUO/Omaha_Cal_Info_CP02PMUO_00003.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Documents\Project Info\WHOI\Marine Integration - OOI\OOInet Migration\Integration\Cal and Ingest Sheets\Sheets from -test 2015-08-19\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12705" yWindow="-15" windowWidth="12510" windowHeight="12405" tabRatio="377"/>
+    <workbookView xWindow="12708" yWindow="-12" windowWidth="12516" windowHeight="12408" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -30,7 +35,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$A$1:$J$93</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$F$405</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -285,6 +290,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -301,7 +307,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,6 +323,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,7 +400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -441,6 +453,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -520,6 +535,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -567,7 +585,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -602,7 +620,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -813,28 +831,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.85546875"/>
-    <col min="2" max="2" width="39.42578125"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.42578125"/>
-    <col min="7" max="7" width="18.7109375"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875"/>
-    <col min="10" max="10" width="12.7109375"/>
-    <col min="11" max="11" width="31.5703125" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" customWidth="1"/>
-    <col min="14" max="1026" width="8.7109375"/>
+    <col min="1" max="1" width="37.88671875"/>
+    <col min="2" max="2" width="39.44140625"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.44140625"/>
+    <col min="7" max="7" width="18.6640625"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875"/>
+    <col min="10" max="10" width="12.6640625"/>
+    <col min="11" max="11" width="31.5546875" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="16.5546875" customWidth="1"/>
+    <col min="14" max="1026" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -869,7 +887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>35</v>
       </c>
@@ -885,7 +903,9 @@
       <c r="E2" s="11">
         <v>0.7284722222222223</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="22">
+        <v>41917</v>
+      </c>
       <c r="G2" s="5" t="s">
         <v>46</v>
       </c>
@@ -908,7 +928,7 @@
         <v>-70.780033333333336</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
@@ -922,26 +942,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125"/>
-    <col min="8" max="8" width="11.85546875"/>
-    <col min="9" max="9" width="14.42578125"/>
-    <col min="10" max="10" width="13.42578125"/>
-    <col min="11" max="1025" width="8.7109375"/>
+    <col min="6" max="6" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625"/>
+    <col min="8" max="8" width="11.88671875"/>
+    <col min="9" max="9" width="14.44140625"/>
+    <col min="10" max="10" width="13.44140625"/>
+    <col min="11" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -961,7 +981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>41</v>
       </c>
@@ -983,7 +1003,7 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>41</v>
       </c>
@@ -1005,7 +1025,7 @@
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>41</v>
       </c>
@@ -1027,7 +1047,7 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -1037,7 +1057,7 @@
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>36</v>
       </c>
@@ -1059,7 +1079,7 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
@@ -1081,7 +1101,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>36</v>
       </c>
@@ -1103,7 +1123,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>36</v>
       </c>
@@ -1125,7 +1145,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>36</v>
       </c>
@@ -1147,7 +1167,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>36</v>
       </c>
@@ -1169,7 +1189,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>36</v>
       </c>
@@ -1191,7 +1211,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>36</v>
       </c>
@@ -1213,7 +1233,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -1223,7 +1243,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>37</v>
       </c>
@@ -1245,7 +1265,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>37</v>
       </c>
@@ -1267,7 +1287,7 @@
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -1277,7 +1297,7 @@
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>57</v>
       </c>
@@ -1299,7 +1319,7 @@
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>57</v>
       </c>
@@ -1321,7 +1341,7 @@
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -1331,7 +1351,7 @@
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>38</v>
       </c>
@@ -1353,7 +1373,7 @@
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>38</v>
       </c>
@@ -1375,7 +1395,7 @@
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>38</v>
       </c>
@@ -1397,7 +1417,7 @@
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>38</v>
       </c>
@@ -1419,7 +1439,7 @@
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>38</v>
       </c>
@@ -1441,7 +1461,7 @@
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>38</v>
       </c>
@@ -1463,7 +1483,7 @@
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
         <v>38</v>
       </c>
@@ -1485,7 +1505,7 @@
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>38</v>
       </c>
@@ -1507,7 +1527,7 @@
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>38</v>
       </c>
@@ -1529,7 +1549,7 @@
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>38</v>
       </c>
@@ -1551,7 +1571,7 @@
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -1561,7 +1581,7 @@
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>39</v>
       </c>
@@ -1583,7 +1603,7 @@
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
         <v>39</v>
       </c>
@@ -1605,7 +1625,7 @@
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -1615,7 +1635,7 @@
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
         <v>33</v>
       </c>
@@ -1635,7 +1655,7 @@
       </c>
       <c r="H35" s="13"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
         <v>53</v>
       </c>
@@ -1655,7 +1675,7 @@
       </c>
       <c r="H36" s="13"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>52</v>
       </c>
@@ -1673,7 +1693,7 @@
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
         <v>40</v>
       </c>

--- a/CP02PMUO/Omaha_Cal_Info_CP02PMUO_00003.xlsx
+++ b/CP02PMUO/Omaha_Cal_Info_CP02PMUO_00003.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Documents\Project Info\WHOI\Marine Integration - OOI\OOInet Migration\Integration\Cal and Ingest Sheets\Sheets from -test 2015-08-19\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12708" yWindow="-12" windowWidth="12516" windowHeight="12408" tabRatio="377"/>
+    <workbookView xWindow="12705" yWindow="-15" windowWidth="12510" windowHeight="12405" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -35,7 +30,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$A$1:$J$93</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$F$405</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -585,7 +580,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -620,7 +615,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -831,28 +826,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.88671875"/>
-    <col min="2" max="2" width="39.44140625"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.44140625"/>
-    <col min="7" max="7" width="18.6640625"/>
-    <col min="8" max="8" width="18.6640625" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875"/>
-    <col min="10" max="10" width="12.6640625"/>
-    <col min="11" max="11" width="31.5546875" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="16.5546875" customWidth="1"/>
-    <col min="14" max="1026" width="8.6640625"/>
+    <col min="1" max="1" width="37.85546875"/>
+    <col min="2" max="2" width="39.42578125"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.42578125"/>
+    <col min="7" max="7" width="18.7109375"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875"/>
+    <col min="10" max="10" width="12.7109375"/>
+    <col min="11" max="11" width="31.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" customWidth="1"/>
+    <col min="14" max="1026" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -887,7 +882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>35</v>
       </c>
@@ -928,7 +923,7 @@
         <v>-70.780033333333336</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
@@ -942,26 +937,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625"/>
-    <col min="8" max="8" width="11.88671875"/>
-    <col min="9" max="9" width="14.44140625"/>
-    <col min="10" max="10" width="13.44140625"/>
-    <col min="11" max="1025" width="8.6640625"/>
+    <col min="6" max="6" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125"/>
+    <col min="8" max="8" width="11.85546875"/>
+    <col min="9" max="9" width="14.42578125"/>
+    <col min="10" max="10" width="13.42578125"/>
+    <col min="11" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -981,7 +976,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>41</v>
       </c>
@@ -1003,7 +998,7 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>41</v>
       </c>
@@ -1025,7 +1020,7 @@
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>41</v>
       </c>
@@ -1047,7 +1042,7 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -1057,7 +1052,7 @@
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>36</v>
       </c>
@@ -1079,7 +1074,7 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
@@ -1101,7 +1096,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>36</v>
       </c>
@@ -1123,7 +1118,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>36</v>
       </c>
@@ -1145,7 +1140,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>36</v>
       </c>
@@ -1167,7 +1162,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>36</v>
       </c>
@@ -1189,7 +1184,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>36</v>
       </c>
@@ -1211,7 +1206,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>36</v>
       </c>
@@ -1233,7 +1228,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -1243,7 +1238,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>37</v>
       </c>
@@ -1265,7 +1260,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>37</v>
       </c>
@@ -1287,7 +1282,7 @@
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -1297,7 +1292,7 @@
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>57</v>
       </c>
@@ -1319,7 +1314,7 @@
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>57</v>
       </c>
@@ -1341,7 +1336,7 @@
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -1351,7 +1346,7 @@
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>38</v>
       </c>
@@ -1368,12 +1363,12 @@
         <v>48</v>
       </c>
       <c r="F21" s="20">
-        <v>1.08</v>
+        <v>1.0760000000000001</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>38</v>
       </c>
@@ -1395,7 +1390,7 @@
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>38</v>
       </c>
@@ -1417,7 +1412,7 @@
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>38</v>
       </c>
@@ -1439,7 +1434,7 @@
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>38</v>
       </c>
@@ -1461,7 +1456,7 @@
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>38</v>
       </c>
@@ -1483,7 +1478,7 @@
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>38</v>
       </c>
@@ -1505,7 +1500,7 @@
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>38</v>
       </c>
@@ -1527,7 +1522,7 @@
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>38</v>
       </c>
@@ -1549,7 +1544,7 @@
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>38</v>
       </c>
@@ -1566,12 +1561,12 @@
         <v>51</v>
       </c>
       <c r="F30" s="20">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -1581,7 +1576,7 @@
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>39</v>
       </c>
@@ -1603,7 +1598,7 @@
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>39</v>
       </c>
@@ -1625,7 +1620,7 @@
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -1635,7 +1630,7 @@
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>33</v>
       </c>
@@ -1655,7 +1650,7 @@
       </c>
       <c r="H35" s="13"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>53</v>
       </c>
@@ -1675,7 +1670,7 @@
       </c>
       <c r="H36" s="13"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>52</v>
       </c>
@@ -1693,7 +1688,7 @@
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>40</v>
       </c>

--- a/CP02PMUO/Omaha_Cal_Info_CP02PMUO_00003.xlsx
+++ b/CP02PMUO/Omaha_Cal_Info_CP02PMUO_00003.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12705" yWindow="-15" windowWidth="12510" windowHeight="12405" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="9540" yWindow="9820" windowWidth="24780" windowHeight="9960" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
     <sheet name="Asset_Cal_Info" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Asset_Cal_Info!$A$1:$F$33</definedName>
-    <definedName name="_xlnm._FilterDatabase">Asset_Cal_Info!$A$1:$F$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Asset_Cal_Info!$A$1:$F$35</definedName>
+    <definedName name="_xlnm._FilterDatabase">Asset_Cal_Info!$A$1:$F$35</definedName>
     <definedName name="_FilterDatabase_0">Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0">Moorings!$A$1:$J$93</definedName>
     <definedName name="_FilterDatabase_0_0_0">Moorings!#REF!</definedName>
@@ -25,17 +25,22 @@
     <definedName name="_FilterDatabase_0_0_0_1">Asset_Cal_Info!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_0_0_1">Asset_Cal_Info!$A$1:$F$405</definedName>
     <definedName name="_FilterDatabase_0_1">Asset_Cal_Info!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_1">Asset_Cal_Info!$A$1:$F$33</definedName>
+    <definedName name="_FilterDatabase_1">Asset_Cal_Info!$A$1:$F$35</definedName>
     <definedName name="_FilterDatabase_1_1">Asset_Cal_Info!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_1_1_1">Moorings!$A$1:$J$93</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$F$405</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="57">
   <si>
     <t>Ref Des</t>
   </si>
@@ -160,9 +165,6 @@
     <t>CP02PMUO-SBS01-01-MOPAK0000</t>
   </si>
   <si>
-    <t>CP02PMUO-RII01-02-ADCPTL000</t>
-  </si>
-  <si>
     <t>CP02PMUO-00003</t>
   </si>
   <si>
@@ -175,12 +177,6 @@
     <t>6223-4220-11918</t>
   </si>
   <si>
-    <t>39°56.492'N</t>
-  </si>
-  <si>
-    <t>70°46.802'W</t>
-  </si>
-  <si>
     <t>CC_angular_resolution</t>
   </si>
   <si>
@@ -194,15 +190,6 @@
   </si>
   <si>
     <t>CP02PMUO-WFP01-00-WFPENG000</t>
-  </si>
-  <si>
-    <t>CP02PMUO-SBS01-00-RTE000000</t>
-  </si>
-  <si>
-    <t>PMUO-00003-STC</t>
-  </si>
-  <si>
-    <t>PMUO-00003-RTE</t>
   </si>
   <si>
     <t>This serial number is a placekeeper used until the correct serial number is found or defined</t>
@@ -232,18 +219,50 @@
       <t>-VEL3DK000</t>
     </r>
   </si>
+  <si>
+    <t>39° 56.543' N</t>
+  </si>
+  <si>
+    <t>70° 46.807' W</t>
+  </si>
+  <si>
+    <r>
+      <t>CP02PMUO-RII01-02-ADCPTL0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <t>units = mm</t>
+  </si>
+  <si>
+    <t>SWE 0009-G</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -300,6 +319,30 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
@@ -391,70 +434,88 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="15" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="7">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Moorings" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -826,28 +887,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="37.85546875"/>
-    <col min="2" max="2" width="39.42578125"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.42578125"/>
-    <col min="7" max="7" width="18.7109375"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875"/>
-    <col min="10" max="10" width="12.7109375"/>
-    <col min="11" max="11" width="31.5703125" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" customWidth="1"/>
-    <col min="14" max="1026" width="8.7109375"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="8" width="21.6640625" customWidth="1"/>
+    <col min="9" max="10" width="14.1640625" customWidth="1"/>
+    <col min="11" max="11" width="31.5" customWidth="1"/>
+    <col min="12" max="12" width="18.5" customWidth="1"/>
+    <col min="13" max="13" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -882,12 +938,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15">
       <c r="A2" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="9">
         <v>3</v>
@@ -896,67 +952,61 @@
         <v>41743</v>
       </c>
       <c r="E2" s="11">
-        <v>0.7284722222222223</v>
+        <v>0.67222222222222217</v>
       </c>
       <c r="F2" s="22">
         <v>41917</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>47</v>
+      <c r="G2" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>53</v>
       </c>
       <c r="I2" s="5">
         <v>452</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K2" s="6"/>
-      <c r="L2" s="12">
-        <f>((LEFT(G2,(FIND("°",G2,1)-1)))+(MID(G2,(FIND("°",G2,1)+1),(FIND("'",G2,1))-(FIND("°",G2,1)+1))/60))*(IF(RIGHT(G2,1)="N",1,-1))</f>
-        <v>39.941533333333332</v>
-      </c>
-      <c r="M2" s="12">
-        <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="E",1,-1))</f>
-        <v>-70.780033333333336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125"/>
-    <col min="8" max="8" width="11.85546875"/>
-    <col min="9" max="9" width="14.42578125"/>
-    <col min="10" max="10" width="13.42578125"/>
-    <col min="11" max="1025" width="8.7109375"/>
+    <col min="6" max="6" width="28.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -976,12 +1026,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="13" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="16">
         <v>3</v>
@@ -992,18 +1042,20 @@
       <c r="E2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="13">
-        <v>427.37</v>
-      </c>
-      <c r="G2" s="13"/>
+      <c r="F2" s="25">
+        <v>432000</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>55</v>
+      </c>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="13" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="16">
         <v>3</v>
@@ -1020,12 +1072,12 @@
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="13" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="16">
         <v>3</v>
@@ -1042,7 +1094,7 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="13"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -1052,56 +1104,30 @@
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="16">
         <v>3</v>
       </c>
-      <c r="D6" s="18">
-        <v>2726</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="19">
-        <v>-799.58</v>
-      </c>
+      <c r="D6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="16">
-        <v>3</v>
-      </c>
-      <c r="D7" s="18">
-        <v>2726</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="17">
-        <v>39.941533333333332</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="16">
         <v>3</v>
@@ -1110,20 +1136,20 @@
         <v>2726</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="17">
-        <v>-70.780033333333336</v>
+        <v>17</v>
+      </c>
+      <c r="F8" s="19">
+        <v>-799.58</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="16">
         <v>3</v>
@@ -1132,20 +1158,20 @@
         <v>2726</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="19">
-        <v>2.7689000000000001E-4</v>
+        <v>15</v>
+      </c>
+      <c r="F9" s="17">
+        <v>39.941533333333332</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="16">
         <v>3</v>
@@ -1154,20 +1180,20 @@
         <v>2726</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="19">
-        <v>-3.2122000000000001E-3</v>
+        <v>16</v>
+      </c>
+      <c r="F10" s="17">
+        <v>-70.780033333333336</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="16">
         <v>3</v>
@@ -1176,20 +1202,20 @@
         <v>2726</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F11" s="19">
-        <v>1.6155E-4</v>
+        <v>2.7689000000000001E-4</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="16">
         <v>3</v>
@@ -1198,20 +1224,20 @@
         <v>2726</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F12" s="19">
-        <v>-2.4787999999999999E-6</v>
+        <v>-3.2122000000000001E-3</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="16">
         <v>3</v>
@@ -1220,182 +1246,182 @@
         <v>2726</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F13" s="19">
-        <v>3.5999999999999997E-2</v>
+        <v>1.6155E-4</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="19"/>
+    <row r="14" spans="1:8">
+      <c r="A14" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="16">
+        <v>3</v>
+      </c>
+      <c r="D14" s="18">
+        <v>2726</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="19">
+        <v>-2.4787999999999999E-6</v>
+      </c>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="16">
         <v>3</v>
       </c>
-      <c r="D15" s="16">
-        <v>127</v>
+      <c r="D15" s="18">
+        <v>2726</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="17">
-        <v>39.941533333333332</v>
+        <v>22</v>
+      </c>
+      <c r="F15" s="19">
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="16">
-        <v>3</v>
-      </c>
-      <c r="D16" s="16">
-        <v>127</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="17">
-        <v>-70.780033333333336</v>
-      </c>
+    <row r="16" spans="1:8">
+      <c r="A16" s="13"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="19"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="17"/>
+    <row r="17" spans="1:8">
+      <c r="A17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="16">
+        <v>3</v>
+      </c>
+      <c r="D17" s="16">
+        <v>127</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="17">
+        <v>39.941533333333332</v>
+      </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="13" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="16">
         <v>3</v>
       </c>
-      <c r="D18" s="18">
-        <v>100033</v>
+      <c r="D18" s="16">
+        <v>127</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F18" s="17">
-        <v>39.941533333333332</v>
+        <v>-70.780033333333336</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="16">
-        <v>3</v>
-      </c>
-      <c r="D19" s="18">
-        <v>100033</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="17">
-        <v>-70.780033333333336</v>
-      </c>
+    <row r="19" spans="1:8">
+      <c r="A19" s="13"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="17"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
+    <row r="20" spans="1:8">
+      <c r="A20" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="16">
+        <v>3</v>
+      </c>
+      <c r="D20" s="18">
+        <v>100033</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="17">
+        <v>39.941533333333332</v>
+      </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="13" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="16">
         <v>3</v>
       </c>
-      <c r="D21" s="16">
-        <v>1100</v>
+      <c r="D21" s="18">
+        <v>100033</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="20">
-        <v>1.0760000000000001</v>
+        <v>24</v>
+      </c>
+      <c r="F21" s="17">
+        <v>-70.780033333333336</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="16">
-        <v>3</v>
-      </c>
-      <c r="D22" s="16">
-        <v>1100</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="13">
-        <v>47</v>
-      </c>
+    <row r="22" spans="1:8">
+      <c r="A22" s="13"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="16">
         <v>3</v>
@@ -1404,20 +1430,20 @@
         <v>1100</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="13">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="F23" s="20">
+        <v>1.0760000000000001</v>
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="16">
         <v>3</v>
@@ -1426,7 +1452,7 @@
         <v>1100</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F24" s="13">
         <v>47</v>
@@ -1434,12 +1460,12 @@
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="16">
         <v>3</v>
@@ -1448,20 +1474,20 @@
         <v>1100</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="20">
-        <v>3.9E-2</v>
+        <v>26</v>
+      </c>
+      <c r="F25" s="13">
+        <v>47</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="16">
         <v>3</v>
@@ -1470,20 +1496,20 @@
         <v>1100</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" s="20">
-        <v>700</v>
+        <v>27</v>
+      </c>
+      <c r="F26" s="13">
+        <v>47</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="16">
         <v>3</v>
@@ -1492,20 +1518,20 @@
         <v>1100</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="13">
-        <v>8.0799999999999997E-2</v>
+        <v>46</v>
+      </c>
+      <c r="F27" s="20">
+        <v>3.9E-2</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="16">
         <v>3</v>
@@ -1514,20 +1540,20 @@
         <v>1100</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="13">
-        <v>1.21E-2</v>
+        <v>47</v>
+      </c>
+      <c r="F28" s="20">
+        <v>700</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="16">
         <v>3</v>
@@ -1536,20 +1562,20 @@
         <v>1100</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="21">
-        <v>3.3139999999999999E-6</v>
+        <v>28</v>
+      </c>
+      <c r="F29" s="13">
+        <v>8.0799999999999997E-2</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="16">
         <v>3</v>
@@ -1558,156 +1584,177 @@
         <v>1100</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" s="20">
-        <v>124</v>
+        <v>29</v>
+      </c>
+      <c r="F30" s="13">
+        <v>1.21E-2</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
+    <row r="31" spans="1:8">
+      <c r="A31" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="16">
+        <v>3</v>
+      </c>
+      <c r="D31" s="16">
+        <v>1100</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="21">
+        <v>3.3139999999999999E-6</v>
+      </c>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="16">
         <v>3</v>
       </c>
       <c r="D32" s="16">
-        <v>20467</v>
+        <v>1100</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="13">
-        <v>1.2</v>
+        <v>48</v>
+      </c>
+      <c r="F32" s="20">
+        <v>124</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="16">
-        <v>3</v>
-      </c>
-      <c r="D33" s="16">
-        <v>20467</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" s="21">
-        <v>9.9399999999999995E-18</v>
-      </c>
+    <row r="33" spans="1:8">
+      <c r="A33" s="13"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
+    <row r="34" spans="1:8">
+      <c r="A34" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="16">
+        <v>3</v>
+      </c>
+      <c r="D34" s="16">
+        <v>20467</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="13">
+        <v>1.2</v>
+      </c>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="13" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" s="16">
         <v>3</v>
       </c>
-      <c r="D35" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="15" t="s">
-        <v>56</v>
-      </c>
+      <c r="D35" s="16">
+        <v>20467</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="21">
+        <v>9.9399999999999995E-18</v>
+      </c>
+      <c r="G35" s="13"/>
       <c r="H35" s="13"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="16">
-        <v>3</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>55</v>
-      </c>
+    <row r="36" spans="1:8">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
-      <c r="G36" s="15" t="s">
-        <v>56</v>
-      </c>
+      <c r="G36" s="13"/>
       <c r="H36" s="13"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" s="16">
         <v>3</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="16">
-        <v>3</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
+    <row r="39" spans="1:8">
+      <c r="A39" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="16">
+        <v>3</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H39" s="13"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="13"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/CP02PMUO/Omaha_Cal_Info_CP02PMUO_00003.xlsx
+++ b/CP02PMUO/Omaha_Cal_Info_CP02PMUO_00003.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9540" yWindow="9820" windowWidth="24780" windowHeight="9960" tabRatio="377"/>
+    <workbookView xWindow="9540" yWindow="9825" windowWidth="24780" windowHeight="9960" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -226,24 +226,25 @@
     <t>70° 46.807' W</t>
   </si>
   <si>
+    <t>units = mm</t>
+  </si>
+  <si>
+    <t>SWE 0009-G</t>
+  </si>
+  <si>
     <r>
-      <t>CP02PMUO-RII01-02-ADCPTL0</t>
+      <t>CP02PMUO-RII01-02-ADCPSL0</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF0000FF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>10</t>
     </r>
-  </si>
-  <si>
-    <t>units = mm</t>
-  </si>
-  <si>
-    <t>SWE 0009-G</t>
   </si>
 </sst>
 </file>
@@ -324,11 +325,13 @@
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -343,6 +346,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -887,23 +891,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="8" width="21.6640625" customWidth="1"/>
-    <col min="9" max="10" width="14.1640625" customWidth="1"/>
-    <col min="11" max="11" width="31.5" customWidth="1"/>
-    <col min="12" max="12" width="18.5" customWidth="1"/>
-    <col min="13" max="13" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="8" width="21.7109375" customWidth="1"/>
+    <col min="9" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="31.42578125" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30">
+    <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -938,7 +942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>35</v>
       </c>
@@ -973,7 +977,7 @@
       <c r="L2" s="12"/>
       <c r="M2" s="12"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
@@ -992,21 +996,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13:M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1026,9 +1030,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>41</v>
@@ -1046,13 +1050,13 @@
         <v>432000</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>41</v>
@@ -1072,9 +1076,9 @@
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>41</v>
@@ -1094,7 +1098,7 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -1104,7 +1108,7 @@
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>40</v>
       </c>
@@ -1122,7 +1126,7 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>36</v>
       </c>
@@ -1144,7 +1148,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>36</v>
       </c>
@@ -1166,7 +1170,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>36</v>
       </c>
@@ -1188,7 +1192,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>36</v>
       </c>
@@ -1210,7 +1214,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>36</v>
       </c>
@@ -1232,7 +1236,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>36</v>
       </c>
@@ -1254,7 +1258,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>36</v>
       </c>
@@ -1276,7 +1280,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>36</v>
       </c>
@@ -1298,7 +1302,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -1308,7 +1312,7 @@
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>37</v>
       </c>
@@ -1330,7 +1334,7 @@
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>37</v>
       </c>
@@ -1352,7 +1356,7 @@
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -1362,7 +1366,7 @@
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>51</v>
       </c>
@@ -1384,7 +1388,7 @@
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>51</v>
       </c>
@@ -1406,7 +1410,7 @@
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -1416,7 +1420,7 @@
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>38</v>
       </c>
@@ -1438,7 +1442,7 @@
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>38</v>
       </c>
@@ -1460,7 +1464,7 @@
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>38</v>
       </c>
@@ -1482,7 +1486,7 @@
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>38</v>
       </c>
@@ -1504,7 +1508,7 @@
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>38</v>
       </c>
@@ -1526,7 +1530,7 @@
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>38</v>
       </c>
@@ -1548,7 +1552,7 @@
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>38</v>
       </c>
@@ -1570,7 +1574,7 @@
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>38</v>
       </c>
@@ -1592,7 +1596,7 @@
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>38</v>
       </c>
@@ -1614,7 +1618,7 @@
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>38</v>
       </c>
@@ -1636,7 +1640,7 @@
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -1646,7 +1650,7 @@
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>39</v>
       </c>
@@ -1668,7 +1672,7 @@
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>39</v>
       </c>
@@ -1690,7 +1694,7 @@
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -1700,7 +1704,7 @@
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>49</v>
       </c>
@@ -1718,7 +1722,7 @@
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>33</v>
       </c>
@@ -1729,7 +1733,7 @@
         <v>3</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
@@ -1738,7 +1742,7 @@
       </c>
       <c r="H39" s="13"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>

--- a/CP02PMUO/Omaha_Cal_Info_CP02PMUO_00003.xlsx
+++ b/CP02PMUO/Omaha_Cal_Info_CP02PMUO_00003.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\Ingest sheets\ingestion-csvs\CP02PMUO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="9540" yWindow="9825" windowWidth="24780" windowHeight="9960" tabRatio="377" activeTab="1"/>
   </bookViews>
@@ -30,7 +35,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$A$1:$J$93</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$F$405</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -645,7 +650,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -680,7 +685,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -997,7 +1002,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13:M23"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,7 +1015,7 @@
     <col min="6" max="6" width="28.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
